--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45379</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45813</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>45705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>45379</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45705</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44635.92489583333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>45586</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45561</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44305</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45136</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45889.4522337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45717</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45288</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45643.63832175926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45127.92238425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45561</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45940</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45017</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>45446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44880</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45291</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45833.34586805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45575.34488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>45705</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45799.61730324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45751</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44833</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44571</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45810.56263888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45831.62631944445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45846.4328587963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44791.61888888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45197</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45426</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44277</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44244</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44585</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44504.58203703703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44833</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44238</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44494</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44864.66456018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44536</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44284.52182870371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44553</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44553</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44284.50615740741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44258</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44277</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44277</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44273.94385416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44571.92197916667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44245</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44405</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44497</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44365.40936342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44733.359375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44581.9221875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44553</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44785</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44238</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44238</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44256</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44277</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44757.40704861111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44291</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44687.60563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44796</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44692</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44277</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44277</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44672</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44571.92201388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44816</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44284.50833333333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44873.47778935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45625.56363425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45231</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45227.58420138889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44797.92704861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44692</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45136</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45576</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45468.93265046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45554</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>45622.51945601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45622.52678240741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45667.55021990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45377</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45460</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45460</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45142.92356481482</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44504</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45543.29166666666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45743</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44987</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45453</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45405</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>45602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>45545.40748842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45573.41719907407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45516.43415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>45691.58537037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45656.41377314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45607.29293981481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45743</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45136</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45136.45347222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44910.79755787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44489.45143518518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45137.27398148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45222.59935185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45799.49234953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45799</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44671</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45798</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45194</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44432.92236111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45149.44966435185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45602</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45274</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45460.81047453704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45395.42256944445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45807.51821759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45827.55077546297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45139.53371527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45686.42900462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45889.44988425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44337</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45810.94730324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45813</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44327</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44366</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>45894.47665509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45894.6680324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45575.33265046297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45894.47200231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45894.66540509259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>45897.46915509259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44748</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44589.92039351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45898</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45899.37400462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>45899.37251157407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45898</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45899</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45394</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45636</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45902.57563657407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44312</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45908.6902662037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45481.31606481481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>45560.68814814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45910.51210648148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45910.50967592592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45750</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45826.3965625</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44587</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>45826.40111111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>45831.62239583334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45831.66894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45520</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45919</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45635.45011574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44553</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44291</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45632</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44904</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>45926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>44911.45668981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45691</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45835.53508101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45835.52673611111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45555.80734953703</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45460</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45460</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45441</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44452</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45834.51092592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45407.97059027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45390</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44741.95179398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45932.51157407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45467</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45838</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45932.51309027777</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45932.51431712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45460</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45936.61145833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45938.62539351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45127.92231481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45938.61908564815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45938.61391203704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45943.61587962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45940</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45943.76771990741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45847.53157407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45848</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45848.90603009259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45947.42418981482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45947.35893518518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45946.70085648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45848.91371527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45849.40664351852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45589.49346064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45632</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45537</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45857.60824074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45857.62436342592</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45857.77271990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45857.59552083333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45857.61952546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45857.62631944445</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>45857.7615625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45859.31001157407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45633.96009259259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45194</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45953.36184027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45953.38818287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45866.58059027778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45547</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45622.42421296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45621.59041666667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45727.45553240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45670</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45670</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45729.49564814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44914.92462962963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45504</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45376</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45959.62284722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45755.52708333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45575.54700231482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45875</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44441</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45877</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45961.59572916666</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45601</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45965.40596064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>45965.43809027778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>45965.44827546296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>45733.41571759259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45965</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45965.45206018518</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45965</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45621.5512962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45883</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45548.61486111111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45398.34453703704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45883</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45881.64761574074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45971.48008101852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44729</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45574.45646990741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45973.59859953704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45405</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45887</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45451.42575231481</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45887</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45974.64328703703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45978.65111111111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45526.36474537037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45979.32758101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45979</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>45979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44635</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45306.64623842593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45985.59467592592</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45985.62443287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45982</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45351</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45132.44865740741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44930.56168981481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45217</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45772</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45960</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45412</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>46034.37177083334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>46032.68081018519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>46035.43523148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>46034.39107638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>46034</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>46034</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45039.64319444444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>46034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>46034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>46034.41677083333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>46034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>46034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45435.56417824074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45995.63984953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>46038</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>46038</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45441</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>46038</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>46038</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45996.55915509259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>46038</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44529</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45427</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45743</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45273.92435185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>46003.51133101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45775</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44441.92107638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45691.60460648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>46003.51122685185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45589.49344907407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>46006</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>46048.54097222222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45462</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45632</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45632.46892361111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45628</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46048.53799768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>46048.43813657408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>46008.44494212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>46008.61619212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>46008.42078703704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>46008</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45281.40275462963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>46052</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45390</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>46049</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45700.6628587963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>46010.40686342592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>46049</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>46049</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45643</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>46013.42859953704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>46013.44413194444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>46049</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>46057.55868055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>46057.53833333333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>46056.67607638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45460</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>44776</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>46059.62247685185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>46058.40638888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>46059.62796296296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>46059.63465277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45686</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44589</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45625.56842592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45685.64603009259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45467</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45405</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44441</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45622.50797453704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44354</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45467</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44859.92850694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45104</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45092</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45775.65917824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45685</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45639</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45202</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45139.54393518518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44406</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45446</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45509.61607638889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45449</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45449</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45377.8446875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45188.42984953704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45351</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44601</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44375.91929398148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45757.92195601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45574.27649305556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45586.39640046296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45579</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44389</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45329</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45526</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45667</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45364.9278125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45149.3140162037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>44923.76341435185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45602</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45772</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45449</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45632</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45632.36780092592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45011</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45691</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>45467</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>45112.47622685185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>45112.47864583333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45454.54755787037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>45635.45800925926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>45481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45685</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>45561.55271990741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>45136.43844907408</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>45534</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>45632.36008101852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>45448</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44309.91943287037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45516.43961805556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>45595.54366898148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44797.92714120371</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45017.71431712963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44634</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44937.45194444444</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45515</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45418.92701388889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45707</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45727</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45379</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44672</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45425</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>44484</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45300.93476851852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45629.36480324074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45520</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45782</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45369</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45602</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>45789.57393518519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45526</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45393</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45786.63832175926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44441</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>45792</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>45792</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45792.65879629629</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÖVERTORNEÅ.xlsx
+++ b/Översikt ÖVERTORNEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>45379</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45813</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>45705</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>45379</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45705</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44635.92489583333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>45586</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45784</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45561</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>44305</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45136</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45889.4522337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>45717</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45288</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>45643.63832175926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45127.92238425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45561</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>45940</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45017</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>45446</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44880</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45291</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45833.34586805556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45575.34488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>45705</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>44833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45799.61730324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45751</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44833</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44571</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>45810.56263888889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45831.62631944445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45846.4328587963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44791.61888888889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45197</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45426</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44277</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44244</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44585</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44504.58203703703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44833</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44238</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44494</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44536</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44864.66456018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44536</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44284.52182870371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44553</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44553</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44284.50615740741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44258</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44277</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44277</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44273.94385416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44305</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44571.92197916667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44245</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44405</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44810</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44497</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44252</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44252</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>44365.40936342593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44733.359375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44581.9221875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44553</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44785</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44238</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44238</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44256</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44277</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44757.40704861111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44291</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>44833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44687.60563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>44796</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>44692</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>44662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>44277</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44277</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44672</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44571.92201388889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44816</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44284.50833333333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44873.47778935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45625.56363425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45231</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45227.58420138889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44797.92704861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44692</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45136</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45576</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45468.93265046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45554</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>45622.51945601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45622.52678240741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45667.55021990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45377</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45460</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>45460</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45142.92356481482</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44504</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>45543.29166666666</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45743</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44987</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45453</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45405</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>45602</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>45545.40748842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45573.41719907407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>45516.43415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>45691.58537037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>45656.41377314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>45607.29293981481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45743</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45136</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45136.45347222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44910.79755787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44489.45143518518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45137.27398148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45222.59935185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45799.49234953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45799</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44671</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45798</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45194</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44432.92236111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45149.44966435185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45602</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45274</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45460.81047453704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45395.42256944445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45807.51821759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45827.55077546297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>45888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45139.53371527778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>45686.42900462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>45889.44988425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>45699</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>44337</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45810.94730324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45813</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44327</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44366</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>45894.47665509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45894.6680324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45575.33265046297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45894.47200231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45894.66540509259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>45897.46915509259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44748</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44589.92039351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45898</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>45899.37400462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>45899.37251157407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45898</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45899</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45394</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45636</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45902.57563657407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44312</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45908.6902662037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45481.31606481481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>45560.68814814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45910.51210648148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45910.50967592592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>45750</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>45481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45826.3965625</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44587</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>45826.40111111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>45831.62239583334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45831.66894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45520</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>45919</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>45635.45011574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44553</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44291</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45632</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44904</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>45926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>44911.45668981481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45691</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45835.53508101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45835.52673611111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45555.80734953703</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45460</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45460</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45441</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44452</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45834.51092592593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45407.97059027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45390</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44741.95179398148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45932.51157407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45467</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45838</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45932.51309027777</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45932.51431712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45460</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45936.61145833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45938.62539351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45127.92231481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45938.61908564815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45938.61391203704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45943.61587962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45940</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45943.76771990741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45847.53157407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45848</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45848.90603009259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45947.42418981482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45947.35893518518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45946.70085648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45848.91371527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45849.40664351852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45589.49346064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45632</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45537</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45857.60824074074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45857.62436342592</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45857.77271990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45857.59552083333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45857.61952546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45857.62631944445</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>45857.7615625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45859.31001157407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45633.96009259259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45194</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45953.36184027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45953.38818287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45684</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45866.58059027778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45547</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45622.42421296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45621.59041666667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45727.45553240741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45670</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45670</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45729.49564814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>44914.92462962963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45504</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>45376</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45959.62284722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>45755.52708333333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45575.54700231482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45875</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44441</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45877</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45961.59572916666</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>45601</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45965.40596064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>45965.43809027778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>45965.44827546296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>45733.41571759259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45965</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45965.45206018518</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45965</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45621.5512962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45883</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45548.61486111111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45398.34453703704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45883</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45881.64761574074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45971.48008101852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>44729</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45574.45646990741</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45973.59859953704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>45405</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44587</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45887</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45451.42575231481</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45887</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45974.64328703703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45978.65111111111</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45526.36474537037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>45979</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45979.32758101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>45979</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>45979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44635</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45306.64623842593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45985.59467592592</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45985.62443287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45982</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45351</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>45118</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45132.44865740741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44930.56168981481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45217</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45772</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45960</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45412</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45167</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>46034.37177083334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>46032.68081018519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>46035.43523148148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>46034.39107638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>46034</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>46034</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45039.64319444444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>46034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>46034</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>46034.41677083333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>46034</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>46034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45559</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45435.56417824074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45995.63984953704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>46038</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>46038</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45441</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>46038</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>46038</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45996.55915509259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>46038</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>44529</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45427</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45743</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45273.92435185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>46003.51133101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45775</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44441.92107638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45691.60460648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>46003.51122685185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45589.49344907407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>46006</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>46048.54097222222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45462</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45632</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45632.46892361111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45628</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46048.53799768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>46048.43813657408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>46008.44494212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>46008.61619212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>46008.42078703704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>46008</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45281.40275462963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>46052</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45390</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>46049</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45700.6628587963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>46010.40686342592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>46049</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>46049</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45643</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>46013.42859953704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>46013.44413194444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>46049</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>46057.55868055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>46057.53833333333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>46056.67607638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45460</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>44776</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>46059.62247685185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>46058.40638888889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>46059.62796296296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>46059.63465277778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45686</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44589</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45625.56842592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45685.64603009259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45467</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45405</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44441</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45622.50797453704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44354</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45467</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44859.92850694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45104</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45092</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45775.65917824074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45685</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45639</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45202</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45139.54393518518</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44406</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45446</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45509.61607638889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45449</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45449</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45377.8446875</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>45188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45188.42984953704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45351</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>44601</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44375.91929398148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45757.92195601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>45574.27649305556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45586.39640046296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45579</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44389</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45329</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>45526</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>45667</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45364.9278125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45149.3140162037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>44923.76341435185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45602</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45772</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45449</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45632</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45632.36780092592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45011</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45691</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>45467</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>45112.47622685185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>45112.47864583333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45454.54755787037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>45635.45800925926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>45481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44532</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45685</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>45561.55271990741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>45136.43844907408</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>45534</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>45632.36008101852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>45448</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44309.91943287037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45516.43961805556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>45595.54366898148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44797.92714120371</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45017.71431712963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45685</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>44634</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44937.45194444444</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45515</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45418.92701388889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45707</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45727</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45379</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>44672</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45425</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>44484</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45300.93476851852</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45629.36480324074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45520</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45467</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45782</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45369</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>45602</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>45789.57393518519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45526</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45393</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45786.63832175926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44441</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>45792</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>45792</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45792.65879629629</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
